--- a/Modelagens/SP_Medical_Group-Físico.xlsx
+++ b/Modelagens/SP_Medical_Group-Físico.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A349B5-62D2-4BCD-A097-86A32858D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296497DA-1F3E-499C-BF2D-6B7FF8BF6FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36375" yWindow="-1605" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -434,6 +434,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -623,15 +626,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -657,13 +651,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -945,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M37" sqref="K31:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -960,9 +966,9 @@
     <col min="5" max="5" width="23.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="5" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="42.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -984,28 +990,28 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="H2" s="18" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="H2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
-      <c r="N2" s="18" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="N2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="20"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -1088,11 +1094,11 @@
       <c r="L4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="27"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="10">
         <v>1</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="25" t="s">
         <v>77</v>
       </c>
       <c r="P4" s="10">
@@ -1124,11 +1130,11 @@
       <c r="L5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="27"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="10">
         <v>2</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="26" t="s">
         <v>117</v>
       </c>
       <c r="P5" s="10">
@@ -1145,14 +1151,14 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="36"/>
+      <c r="E6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="36"/>
       <c r="H6" s="9">
         <v>3</v>
       </c>
@@ -1168,11 +1174,11 @@
       <c r="L6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="27"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="10">
         <v>3</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="27" t="s">
         <v>118</v>
       </c>
       <c r="P6" s="10">
@@ -1216,11 +1222,11 @@
       <c r="L7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="27"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="10">
         <v>4</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="27" t="s">
         <v>119</v>
       </c>
       <c r="P7" s="10">
@@ -1250,10 +1256,10 @@
       <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="29">
         <v>5</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="30">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1265,11 +1271,11 @@
       <c r="L8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="27"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="10">
         <v>5</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="27" t="s">
         <v>121</v>
       </c>
       <c r="P8" s="10">
@@ -1299,10 +1305,10 @@
       <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="29">
         <v>6</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="30">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1314,11 +1320,11 @@
       <c r="L9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="27"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="10">
         <v>6</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="27" t="s">
         <v>122</v>
       </c>
       <c r="P9" s="10">
@@ -1347,11 +1353,11 @@
       <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="33">
+      <c r="G10" s="24"/>
+      <c r="H10" s="30">
         <v>7</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="30">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1363,11 +1369,11 @@
       <c r="L10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="27"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="10">
         <v>7</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="O10" s="27" t="s">
         <v>124</v>
       </c>
       <c r="P10" s="10">
@@ -1390,11 +1396,11 @@
       <c r="F11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="33">
+      <c r="G11" s="24"/>
+      <c r="H11" s="30">
         <v>8</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="30">
         <v>2</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -1406,11 +1412,11 @@
       <c r="L11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="27"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="13">
         <v>8</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="28" t="s">
         <v>125</v>
       </c>
       <c r="P11" s="13">
@@ -1427,17 +1433,17 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="36"/>
       <c r="E12" s="9">
         <v>5</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="14">
         <v>9</v>
       </c>
@@ -1469,7 +1475,7 @@
       <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="14">
         <v>10</v>
       </c>
@@ -1489,7 +1495,7 @@
     <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>47</v>
@@ -1500,7 +1506,7 @@
       <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="13">
         <v>11</v>
       </c>
@@ -1520,7 +1526,7 @@
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>48</v>
@@ -1535,7 +1541,7 @@
     <row r="16" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>49</v>
@@ -1546,17 +1552,17 @@
       <c r="F16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E17" s="9">
@@ -1578,10 +1584,10 @@
         <v>51</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1603,14 +1609,14 @@
       <c r="K18" s="10">
         <v>9</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M18" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -1633,14 +1639,14 @@
       <c r="K19" s="10">
         <v>10</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -1663,14 +1669,14 @@
       <c r="K20" s="13">
         <v>11</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -1690,13 +1696,13 @@
       <c r="F22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="36"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E23" s="9">
@@ -1717,7 +1723,7 @@
       <c r="N23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O23" s="37" t="s">
+      <c r="O23" s="32" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1735,12 +1741,12 @@
         <v>3</v>
       </c>
       <c r="M24" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" s="10">
         <v>7</v>
       </c>
-      <c r="O24" s="37">
+      <c r="O24" s="32">
         <v>43850.625</v>
       </c>
     </row>
@@ -1752,26 +1758,26 @@
         <v>2</v>
       </c>
       <c r="M25" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" s="10">
         <v>2</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="32">
         <v>43836.416666666664</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
       <c r="K26" s="9">
         <v>3</v>
       </c>
@@ -1779,12 +1785,12 @@
         <v>2</v>
       </c>
       <c r="M26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" s="10">
         <v>3</v>
       </c>
-      <c r="O26" s="37">
+      <c r="O26" s="32">
         <v>43868.458333333336</v>
       </c>
     </row>
@@ -1820,12 +1826,12 @@
         <v>2</v>
       </c>
       <c r="M27" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" s="10">
         <v>2</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="32">
         <v>43137.416666666664</v>
       </c>
     </row>
@@ -1848,7 +1854,7 @@
       <c r="G28" s="2">
         <v>94839859000</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="37">
         <v>30602</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -1861,12 +1867,12 @@
         <v>1</v>
       </c>
       <c r="M28" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" s="10">
         <v>4</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="32">
         <v>43503.458854166667</v>
       </c>
     </row>
@@ -1889,7 +1895,7 @@
       <c r="G29" s="2">
         <v>73556944057</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="37">
         <v>37095</v>
       </c>
       <c r="I29" s="6" t="s">
@@ -1902,12 +1908,12 @@
         <v>3</v>
       </c>
       <c r="M29" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="10">
         <v>7</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="32">
         <v>43898.625</v>
       </c>
     </row>
@@ -1930,7 +1936,7 @@
       <c r="G30" s="2">
         <v>16839338002</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="37">
         <v>28773</v>
       </c>
       <c r="I30" s="6" t="s">
@@ -1943,12 +1949,12 @@
         <v>1</v>
       </c>
       <c r="M30" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="13">
         <v>4</v>
       </c>
-      <c r="O30" s="38">
+      <c r="O30" s="33">
         <v>43899.458854166667</v>
       </c>
     </row>
@@ -1971,7 +1977,7 @@
       <c r="G31" s="2">
         <v>14332654765</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="37">
         <v>31333</v>
       </c>
       <c r="I31" s="6" t="s">
@@ -1985,7 +1991,7 @@
       <c r="C32" s="10">
         <v>6</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="30">
         <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1997,21 +2003,23 @@
       <c r="G32" s="2">
         <v>91305348010</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="37">
         <v>27633</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>6</v>
       </c>
       <c r="C33" s="10">
         <v>7</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="30">
         <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2023,21 +2031,23 @@
       <c r="G33" s="2">
         <v>79799299004</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="37">
         <v>26379</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>7</v>
       </c>
       <c r="C34" s="13">
         <v>8</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="31">
         <v>7</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2049,15 +2059,38 @@
       <c r="G34" s="12">
         <v>13771913039</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="38">
         <v>43164</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>132</v>
       </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K35" s="10"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K36" s="10"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="K32:L32"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="H2:L2"/>
